--- a/dymension/results/result.xlsx
+++ b/dymension/results/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irors\PycharmProjects\dymension\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02FF01E-2242-4664-807B-C9542B64B42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E971BE-C8E6-491F-A426-48137AD83954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Number of transactions</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,7 +384,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="A2:B3"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,13 +393,9 @@
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
